--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -516,6 +516,11 @@
     <t>Eudra CT Number</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://www.clinicaltrialsregister.eu"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
@@ -718,6 +723,11 @@
     <t>NCT number</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://clinicaltrials.gov"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>http://clinicaltrials.gov</t>
   </si>
   <si>
@@ -727,6 +737,11 @@
     <t>Pubmed ID</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://www.ncbi.nlm.nih.gov/pubmed"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>http://www.ncbi.nlm.nih.gov/pubmed</t>
   </si>
   <si>
@@ -736,6 +751,11 @@
     <t>Digital Object Identifier</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://doi.org"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>https://doi.org</t>
   </si>
   <si>
@@ -745,6 +765,11 @@
     <t>Uniform Resource Identifier</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:ietf:rfc:3986"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>urn:ietf:rfc:3986</t>
   </si>
   <si>
@@ -752,6 +777,11 @@
   </si>
   <si>
     <t>Deusches Register Klinischer Studien</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://www.drks.de"/&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>https://www.drks.de</t>
@@ -3040,7 +3070,7 @@
         <v>81</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>81</v>
@@ -3111,7 +3141,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3137,10 +3167,10 @@
         <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3191,7 +3221,7 @@
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3212,7 +3242,7 @@
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>81</v>
@@ -3223,7 +3253,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3252,7 +3282,7 @@
         <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>139</v>
@@ -3293,10 +3323,10 @@
         <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>81</v>
@@ -3305,7 +3335,7 @@
         <v>153</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3326,7 +3356,7 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3337,7 +3367,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3363,16 +3393,16 @@
         <v>110</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -3397,13 +3427,13 @@
         <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>81</v>
@@ -3421,7 +3451,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3442,7 +3472,7 @@
         <v>133</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3453,7 +3483,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3476,19 +3506,19 @@
         <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -3513,13 +3543,13 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3537,7 +3567,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3555,10 +3585,10 @@
         <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3569,7 +3599,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3595,16 +3625,16 @@
         <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3614,10 +3644,10 @@
         <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>81</v>
@@ -3653,7 +3683,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3671,10 +3701,10 @@
         <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -3685,7 +3715,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3711,13 +3741,13 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3731,7 +3761,7 @@
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>81</v>
@@ -3767,7 +3797,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -3785,10 +3815,10 @@
         <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -3799,7 +3829,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3822,13 +3852,13 @@
         <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3879,7 +3909,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -3897,10 +3927,10 @@
         <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
@@ -3911,7 +3941,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3934,16 +3964,16 @@
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3993,7 +4023,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4011,10 +4041,10 @@
         <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
@@ -4028,7 +4058,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>81</v>
@@ -4053,7 +4083,7 @@
         <v>148</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>150</v>
@@ -4070,7 +4100,7 @@
         <v>81</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>81</v>
@@ -4141,7 +4171,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4167,10 +4197,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4221,7 +4251,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4242,7 +4272,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4253,7 +4283,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4282,7 +4312,7 @@
         <v>137</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>139</v>
@@ -4323,10 +4353,10 @@
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>81</v>
@@ -4335,7 +4365,7 @@
         <v>153</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4356,7 +4386,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4367,7 +4397,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4393,16 +4423,16 @@
         <v>110</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4427,13 +4457,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4451,7 +4481,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4472,7 +4502,7 @@
         <v>133</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4483,7 +4513,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4506,19 +4536,19 @@
         <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4543,13 +4573,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4567,7 +4597,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4585,10 +4615,10 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4599,7 +4629,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4625,16 +4655,16 @@
         <v>104</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4644,10 +4674,10 @@
         <v>81</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>81</v>
@@ -4683,7 +4713,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4701,10 +4731,10 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4715,7 +4745,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4741,13 +4771,13 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4761,7 +4791,7 @@
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>81</v>
@@ -4797,7 +4827,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4815,10 +4845,10 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
@@ -4829,7 +4859,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4852,13 +4882,13 @@
         <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4909,7 +4939,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -4927,10 +4957,10 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -4941,7 +4971,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4964,16 +4994,16 @@
         <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5023,7 +5053,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5041,10 +5071,10 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
@@ -5058,7 +5088,7 @@
         <v>147</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>81</v>
@@ -5083,7 +5113,7 @@
         <v>148</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>150</v>
@@ -5100,7 +5130,7 @@
         <v>81</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>81</v>
@@ -5171,7 +5201,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5197,10 +5227,10 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5251,7 +5281,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5272,7 +5302,7 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
@@ -5283,7 +5313,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5312,7 +5342,7 @@
         <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>139</v>
@@ -5353,10 +5383,10 @@
         <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>81</v>
@@ -5365,7 +5395,7 @@
         <v>153</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5386,7 +5416,7 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5397,7 +5427,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5423,16 +5453,16 @@
         <v>110</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5457,13 +5487,13 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
@@ -5481,7 +5511,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5502,7 +5532,7 @@
         <v>133</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5513,7 +5543,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5536,19 +5566,19 @@
         <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
@@ -5573,13 +5603,13 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -5597,7 +5627,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5615,10 +5645,10 @@
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5629,7 +5659,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5655,16 +5685,16 @@
         <v>104</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -5674,10 +5704,10 @@
         <v>81</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>81</v>
@@ -5713,7 +5743,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5731,10 +5761,10 @@
         <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -5745,7 +5775,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5771,13 +5801,13 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5791,7 +5821,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -5827,7 +5857,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5845,10 +5875,10 @@
         <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
@@ -5859,7 +5889,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5882,13 +5912,13 @@
         <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5939,7 +5969,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5957,10 +5987,10 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
@@ -5971,7 +6001,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5994,16 +6024,16 @@
         <v>91</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6053,7 +6083,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6071,10 +6101,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
@@ -6088,7 +6118,7 @@
         <v>147</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>81</v>
@@ -6113,7 +6143,7 @@
         <v>148</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>150</v>
@@ -6130,7 +6160,7 @@
         <v>81</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>81</v>
@@ -6201,7 +6231,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6227,10 +6257,10 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6281,7 +6311,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6302,7 +6332,7 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6313,7 +6343,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6342,7 +6372,7 @@
         <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>139</v>
@@ -6383,10 +6413,10 @@
         <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>81</v>
@@ -6395,7 +6425,7 @@
         <v>153</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6416,7 +6446,7 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6427,7 +6457,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6453,16 +6483,16 @@
         <v>110</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6487,13 +6517,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -6511,7 +6541,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6532,7 +6562,7 @@
         <v>133</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6543,7 +6573,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6566,19 +6596,19 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6603,13 +6633,13 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -6627,7 +6657,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6645,10 +6675,10 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -6659,7 +6689,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6685,16 +6715,16 @@
         <v>104</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6704,10 +6734,10 @@
         <v>81</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>81</v>
@@ -6743,7 +6773,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6761,10 +6791,10 @@
         <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -6775,7 +6805,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6801,13 +6831,13 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6821,7 +6851,7 @@
         <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>81</v>
@@ -6857,7 +6887,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -6875,10 +6905,10 @@
         <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -6889,7 +6919,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6912,13 +6942,13 @@
         <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6969,7 +6999,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -6987,10 +7017,10 @@
         <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7001,7 +7031,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7024,16 +7054,16 @@
         <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7083,7 +7113,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7101,10 +7131,10 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7118,7 +7148,7 @@
         <v>147</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>81</v>
@@ -7143,7 +7173,7 @@
         <v>148</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>150</v>
@@ -7160,7 +7190,7 @@
         <v>81</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>81</v>
@@ -7231,7 +7261,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7257,10 +7287,10 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7311,7 +7341,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7332,7 +7362,7 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7343,7 +7373,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7372,7 +7402,7 @@
         <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>139</v>
@@ -7413,10 +7443,10 @@
         <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>81</v>
@@ -7425,7 +7455,7 @@
         <v>153</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7446,7 +7476,7 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7457,7 +7487,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7483,16 +7513,16 @@
         <v>110</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7517,13 +7547,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7541,7 +7571,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7562,7 +7592,7 @@
         <v>133</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7573,7 +7603,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7596,19 +7626,19 @@
         <v>91</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7633,13 +7663,13 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -7657,7 +7687,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7675,10 +7705,10 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7689,7 +7719,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7715,16 +7745,16 @@
         <v>104</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
@@ -7734,10 +7764,10 @@
         <v>81</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>81</v>
@@ -7773,7 +7803,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -7791,10 +7821,10 @@
         <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -7805,7 +7835,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7831,13 +7861,13 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7851,7 +7881,7 @@
         <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>81</v>
@@ -7887,7 +7917,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -7905,10 +7935,10 @@
         <v>81</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -7919,7 +7949,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7942,13 +7972,13 @@
         <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7999,7 +8029,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8017,10 +8047,10 @@
         <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8031,7 +8061,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8054,16 +8084,16 @@
         <v>91</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8113,7 +8143,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8131,10 +8161,10 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8148,7 +8178,7 @@
         <v>147</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>81</v>
@@ -8173,7 +8203,7 @@
         <v>148</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>150</v>
@@ -8190,7 +8220,7 @@
         <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>81</v>
@@ -8261,7 +8291,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8287,10 +8317,10 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8341,7 +8371,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8362,7 +8392,7 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8373,7 +8403,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8402,7 +8432,7 @@
         <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>139</v>
@@ -8443,10 +8473,10 @@
         <v>81</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>81</v>
@@ -8455,7 +8485,7 @@
         <v>153</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8476,7 +8506,7 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8487,7 +8517,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8513,16 +8543,16 @@
         <v>110</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -8547,13 +8577,13 @@
         <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>81</v>
@@ -8571,7 +8601,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8592,7 +8622,7 @@
         <v>133</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -8603,7 +8633,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8626,19 +8656,19 @@
         <v>91</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -8663,13 +8693,13 @@
         <v>81</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>81</v>
@@ -8687,7 +8717,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8705,10 +8735,10 @@
         <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -8719,7 +8749,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8745,16 +8775,16 @@
         <v>104</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
@@ -8764,10 +8794,10 @@
         <v>81</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>81</v>
@@ -8803,7 +8833,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8821,10 +8851,10 @@
         <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -8835,7 +8865,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8861,13 +8891,13 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8881,7 +8911,7 @@
         <v>81</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>81</v>
@@ -8917,7 +8947,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -8935,10 +8965,10 @@
         <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -8949,7 +8979,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8972,13 +9002,13 @@
         <v>91</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9029,7 +9059,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9047,10 +9077,10 @@
         <v>81</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9061,7 +9091,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9084,16 +9114,16 @@
         <v>91</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9143,7 +9173,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9161,10 +9191,10 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9175,7 +9205,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9201,10 +9231,10 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9255,7 +9285,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9270,7 +9300,7 @@
         <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -9279,7 +9309,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9287,7 +9317,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9310,13 +9340,13 @@
         <v>91</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9367,7 +9397,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9382,16 +9412,16 @@
         <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9399,11 +9429,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9422,17 +9452,17 @@
         <v>91</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -9481,7 +9511,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9496,13 +9526,13 @@
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9513,7 +9543,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9539,10 +9569,10 @@
         <v>110</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9569,13 +9599,13 @@
         <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>81</v>
@@ -9593,7 +9623,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>90</v>
@@ -9608,24 +9638,24 @@
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9648,13 +9678,13 @@
         <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9681,13 +9711,13 @@
         <v>81</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>81</v>
@@ -9705,7 +9735,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -9720,7 +9750,7 @@
         <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -9737,7 +9767,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9760,13 +9790,13 @@
         <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9793,11 +9823,11 @@
         <v>81</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>81</v>
@@ -9815,7 +9845,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9860,7 @@
         <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
@@ -9839,7 +9869,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -9847,7 +9877,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9870,13 +9900,13 @@
         <v>91</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9903,10 +9933,10 @@
         <v>81</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Y72" t="s" s="2">
         <v>81</v>
@@ -9925,7 +9955,7 @@
         <v>153</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -9940,7 +9970,7 @@
         <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -9949,7 +9979,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -9957,10 +9987,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>81</v>
@@ -9982,13 +10012,13 @@
         <v>91</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10015,11 +10045,11 @@
         <v>81</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>81</v>
@@ -10037,7 +10067,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10052,7 +10082,7 @@
         <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -10061,7 +10091,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10069,10 +10099,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>81</v>
@@ -10094,13 +10124,13 @@
         <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10127,11 +10157,11 @@
         <v>81</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>81</v>
@@ -10149,7 +10179,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10164,7 +10194,7 @@
         <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
@@ -10173,7 +10203,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10181,10 +10211,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>81</v>
@@ -10206,13 +10236,13 @@
         <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10239,11 +10269,11 @@
         <v>81</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>81</v>
@@ -10261,7 +10291,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10276,7 +10306,7 @@
         <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>81</v>
@@ -10285,7 +10315,7 @@
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -10293,10 +10323,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>81</v>
@@ -10318,13 +10348,13 @@
         <v>91</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10351,11 +10381,11 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -10373,7 +10403,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10388,7 +10418,7 @@
         <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
@@ -10397,7 +10427,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -10405,7 +10435,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10428,13 +10458,13 @@
         <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10461,11 +10491,11 @@
         <v>81</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>81</v>
@@ -10483,7 +10513,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -10498,7 +10528,7 @@
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -10507,15 +10537,15 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10538,13 +10568,13 @@
         <v>91</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10571,13 +10601,13 @@
         <v>81</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>81</v>
@@ -10595,7 +10625,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -10610,24 +10640,24 @@
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10650,13 +10680,13 @@
         <v>91</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10707,7 +10737,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -10722,7 +10752,7 @@
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
@@ -10731,7 +10761,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -10739,7 +10769,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10762,13 +10792,13 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10819,7 +10849,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -10834,7 +10864,7 @@
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
@@ -10843,7 +10873,7 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -10851,7 +10881,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10874,13 +10904,13 @@
         <v>91</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10907,10 +10937,10 @@
         <v>81</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Y81" t="s" s="2">
         <v>81</v>
@@ -10931,7 +10961,7 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
@@ -10946,7 +10976,7 @@
         <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
@@ -10955,7 +10985,7 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -10963,7 +10993,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10986,13 +11016,13 @@
         <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11019,13 +11049,13 @@
         <v>81</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>81</v>
@@ -11043,7 +11073,7 @@
         <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11058,7 +11088,7 @@
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
@@ -11075,7 +11105,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11098,13 +11128,13 @@
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11155,7 +11185,7 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11170,7 +11200,7 @@
         <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>81</v>
@@ -11179,7 +11209,7 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -11187,11 +11217,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11210,16 +11240,16 @@
         <v>91</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11269,7 +11299,7 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11284,28 +11314,28 @@
         <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11324,13 +11354,13 @@
         <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11381,7 +11411,7 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -11396,24 +11426,24 @@
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11436,13 +11466,13 @@
         <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11493,7 +11523,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -11508,24 +11538,24 @@
         <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11548,13 +11578,13 @@
         <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11605,7 +11635,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -11620,7 +11650,7 @@
         <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -11629,15 +11659,15 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11660,13 +11690,13 @@
         <v>91</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11717,7 +11747,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -11732,7 +11762,7 @@
         <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>81</v>
@@ -11741,15 +11771,15 @@
         <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11772,13 +11802,13 @@
         <v>91</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11805,13 +11835,13 @@
         <v>81</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>81</v>
@@ -11829,7 +11859,7 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
@@ -11844,7 +11874,7 @@
         <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>81</v>
@@ -11853,15 +11883,15 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11884,13 +11914,13 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11941,7 +11971,7 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -11956,13 +11986,13 @@
         <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -11973,7 +12003,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11996,13 +12026,13 @@
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12053,7 +12083,7 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
@@ -12068,7 +12098,7 @@
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>81</v>
@@ -12077,7 +12107,7 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -12085,7 +12115,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12111,10 +12141,10 @@
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12165,7 +12195,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12186,7 +12216,7 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
@@ -12197,7 +12227,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12226,7 +12256,7 @@
         <v>137</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>139</v>
@@ -12279,7 +12309,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12300,7 +12330,7 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
@@ -12311,11 +12341,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12337,10 +12367,10 @@
         <v>136</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>139</v>
@@ -12395,7 +12425,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -12427,7 +12457,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12453,10 +12483,10 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12507,7 +12537,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>90</v>
@@ -12522,7 +12552,7 @@
         <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>81</v>
@@ -12531,7 +12561,7 @@
         <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
@@ -12539,7 +12569,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12562,13 +12592,13 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12595,11 +12625,11 @@
         <v>81</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>81</v>
@@ -12617,7 +12647,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -12632,7 +12662,7 @@
         <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>81</v>
@@ -12641,7 +12671,7 @@
         <v>81</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
@@ -12649,7 +12679,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12675,10 +12705,10 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12729,7 +12759,7 @@
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -12744,7 +12774,7 @@
         <v>102</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>81</v>
@@ -12753,7 +12783,7 @@
         <v>81</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>81</v>
@@ -12761,7 +12791,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12784,13 +12814,13 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12841,7 +12871,7 @@
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
@@ -12856,7 +12886,7 @@
         <v>102</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>81</v>
@@ -12873,7 +12903,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12899,10 +12929,10 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12953,7 +12983,7 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
@@ -12974,7 +13004,7 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
@@ -12985,7 +13015,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13014,7 +13044,7 @@
         <v>137</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>139</v>
@@ -13067,7 +13097,7 @@
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>79</v>
@@ -13088,7 +13118,7 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
@@ -13099,11 +13129,11 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13125,10 +13155,10 @@
         <v>136</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>139</v>
@@ -13183,7 +13213,7 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
@@ -13215,7 +13245,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13241,10 +13271,10 @@
         <v>92</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13295,7 +13325,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13310,7 +13340,7 @@
         <v>102</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>81</v>
@@ -13327,7 +13357,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13350,13 +13380,13 @@
         <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13386,10 +13416,10 @@
         <v>114</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>81</v>
@@ -13407,7 +13437,7 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
@@ -13422,7 +13452,7 @@
         <v>102</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,10 +274,6 @@
     <t>Need to make sure we encompass public health studies.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>ObservationalStudyProtocolVersion; Study;
 StudyProtocolVersion</t>
   </si>
@@ -297,7 +293,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -522,6 +518,10 @@
   </si>
   <si>
     <t>ResearchStudy.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1724,39 +1724,39 @@
     <col min="1" max="1" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="214.90234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="214.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="106.69140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.0703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="207.05859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="207.0625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="181.859375" customWidth="true" bestFit="true"/>
@@ -1981,16 +1981,16 @@
         <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2012,28 +2012,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2083,13 +2083,13 @@
         <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>81</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2126,25 +2126,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2195,19 +2195,19 @@
         <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2238,28 +2238,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2309,19 +2309,19 @@
         <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2352,7 +2352,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>81</v>
@@ -2364,16 +2364,16 @@
         <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2399,43 +2399,43 @@
         <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>81</v>
@@ -2455,18 +2455,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>81</v>
@@ -2478,16 +2478,16 @@
         <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2537,28 +2537,28 @@
         <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>81</v>
@@ -2569,11 +2569,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2592,16 +2592,16 @@
         <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2651,7 +2651,7 @@
         <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -2672,7 +2672,7 @@
         <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>81</v>
@@ -2683,11 +2683,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2706,16 +2706,16 @@
         <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2765,7 +2765,7 @@
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -2777,7 +2777,7 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>81</v>
@@ -2786,7 +2786,7 @@
         <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>81</v>
@@ -2797,11 +2797,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2814,25 +2814,25 @@
         <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>81</v>
@@ -2881,7 +2881,7 @@
         <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -2893,7 +2893,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -2902,7 +2902,7 @@
         <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2927,26 +2927,26 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>81</v>
@@ -2983,17 +2983,17 @@
         <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3005,30 +3005,30 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>81</v>
@@ -3038,29 +3038,29 @@
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>81</v>
@@ -3070,7 +3070,7 @@
         <v>81</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>81</v>
@@ -3109,7 +3109,7 @@
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3121,27 +3121,27 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3152,7 +3152,7 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3164,7 +3164,7 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>162</v>
@@ -3227,7 +3227,7 @@
         <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>81</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3276,16 +3276,16 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3332,7 +3332,7 @@
         <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>170</v>
@@ -3347,7 +3347,7 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>81</v>
@@ -3378,19 +3378,19 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3457,19 +3457,19 @@
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>180</v>
@@ -3494,16 +3494,16 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>182</v>
@@ -3573,13 +3573,13 @@
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>81</v>
@@ -3607,22 +3607,22 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>193</v>
@@ -3689,13 +3689,13 @@
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>81</v>
@@ -3723,22 +3723,22 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>203</v>
@@ -3803,13 +3803,13 @@
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>81</v>
@@ -3840,16 +3840,16 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>211</v>
@@ -3915,13 +3915,13 @@
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>81</v>
@@ -3952,16 +3952,16 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>218</v>
@@ -4029,13 +4029,13 @@
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>81</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>225</v>
@@ -4068,29 +4068,29 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4139,7 +4139,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4151,27 +4151,27 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4182,7 +4182,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4194,7 +4194,7 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>162</v>
@@ -4257,7 +4257,7 @@
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4306,16 +4306,16 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4362,7 +4362,7 @@
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>170</v>
@@ -4377,7 +4377,7 @@
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>81</v>
@@ -4408,19 +4408,19 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>172</v>
@@ -4487,19 +4487,19 @@
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>180</v>
@@ -4524,16 +4524,16 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>182</v>
@@ -4603,13 +4603,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>81</v>
@@ -4637,22 +4637,22 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="H26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>193</v>
@@ -4719,13 +4719,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>81</v>
@@ -4753,22 +4753,22 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="H27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>203</v>
@@ -4833,13 +4833,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>81</v>
@@ -4870,16 +4870,16 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>211</v>
@@ -4945,13 +4945,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>81</v>
@@ -4982,16 +4982,16 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>218</v>
@@ -5059,13 +5059,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>81</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>229</v>
@@ -5098,29 +5098,29 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5169,7 +5169,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5181,27 +5181,27 @@
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5212,7 +5212,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5224,7 +5224,7 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>162</v>
@@ -5287,7 +5287,7 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5336,16 +5336,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5392,7 +5392,7 @@
         <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>170</v>
@@ -5407,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5438,19 +5438,19 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I33" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>172</v>
@@ -5517,19 +5517,19 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>180</v>
@@ -5554,16 +5554,16 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>182</v>
@@ -5633,13 +5633,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
@@ -5667,22 +5667,22 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>193</v>
@@ -5749,13 +5749,13 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5783,22 +5783,22 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="H36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>203</v>
@@ -5863,13 +5863,13 @@
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>81</v>
@@ -5900,16 +5900,16 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>211</v>
@@ -5975,13 +5975,13 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>81</v>
@@ -6012,16 +6012,16 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>218</v>
@@ -6089,13 +6089,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>81</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>233</v>
@@ -6128,29 +6128,29 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6199,7 +6199,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6211,27 +6211,27 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6242,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
@@ -6254,7 +6254,7 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>162</v>
@@ -6317,7 +6317,7 @@
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6366,16 +6366,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6422,7 +6422,7 @@
         <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>170</v>
@@ -6437,7 +6437,7 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>81</v>
@@ -6468,19 +6468,19 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>172</v>
@@ -6547,19 +6547,19 @@
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>180</v>
@@ -6584,16 +6584,16 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>182</v>
@@ -6663,13 +6663,13 @@
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>81</v>
@@ -6697,22 +6697,22 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>193</v>
@@ -6779,13 +6779,13 @@
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -6813,22 +6813,22 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="H45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>203</v>
@@ -6893,13 +6893,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -6930,16 +6930,16 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>211</v>
@@ -7005,13 +7005,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
@@ -7042,16 +7042,16 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>218</v>
@@ -7119,13 +7119,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>237</v>
@@ -7158,29 +7158,29 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>238</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7229,7 +7229,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7241,27 +7241,27 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7272,7 +7272,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7284,7 +7284,7 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>162</v>
@@ -7347,7 +7347,7 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7396,16 +7396,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7452,7 +7452,7 @@
         <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>170</v>
@@ -7467,7 +7467,7 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
@@ -7498,19 +7498,19 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>172</v>
@@ -7577,19 +7577,19 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>180</v>
@@ -7614,16 +7614,16 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>182</v>
@@ -7693,13 +7693,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>81</v>
@@ -7727,22 +7727,22 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>193</v>
@@ -7809,13 +7809,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>81</v>
@@ -7843,22 +7843,22 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>203</v>
@@ -7923,13 +7923,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>81</v>
@@ -7960,16 +7960,16 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>211</v>
@@ -8035,13 +8035,13 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>81</v>
@@ -8072,16 +8072,16 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>218</v>
@@ -8149,13 +8149,13 @@
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>241</v>
@@ -8188,29 +8188,29 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>242</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8259,7 +8259,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8271,27 +8271,27 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8302,7 +8302,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8314,7 +8314,7 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>162</v>
@@ -8377,7 +8377,7 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8426,16 +8426,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8482,7 +8482,7 @@
         <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>170</v>
@@ -8497,7 +8497,7 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>81</v>
@@ -8528,19 +8528,19 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I60" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>172</v>
@@ -8607,19 +8607,19 @@
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>180</v>
@@ -8644,16 +8644,16 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>182</v>
@@ -8723,13 +8723,13 @@
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -8757,22 +8757,22 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>193</v>
@@ -8839,13 +8839,13 @@
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -8873,22 +8873,22 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>203</v>
@@ -8953,13 +8953,13 @@
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -8990,16 +8990,16 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>211</v>
@@ -9065,13 +9065,13 @@
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9102,16 +9102,16 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>218</v>
@@ -9179,13 +9179,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>81</v>
@@ -9216,19 +9216,19 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>246</v>
@@ -9291,13 +9291,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>248</v>
@@ -9337,7 +9337,7 @@
         <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>251</v>
@@ -9409,7 +9409,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>254</v>
@@ -9449,7 +9449,7 @@
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>259</v>
@@ -9523,7 +9523,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>263</v>
@@ -9551,22 +9551,22 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G69" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="H69" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I69" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>266</v>
@@ -9626,16 +9626,16 @@
         <v>265</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>270</v>
@@ -9666,16 +9666,16 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>182</v>
@@ -9741,13 +9741,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>278</v>
@@ -9775,19 +9775,19 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>182</v>
@@ -9851,13 +9851,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>283</v>
@@ -9885,19 +9885,19 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>182</v>
@@ -9945,14 +9945,14 @@
         <v>81</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>285</v>
@@ -9967,7 +9967,7 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>290</v>
@@ -9997,19 +9997,19 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G73" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="H73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>182</v>
@@ -10079,7 +10079,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>290</v>
@@ -10115,13 +10115,13 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>182</v>
@@ -10191,7 +10191,7 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>290</v>
@@ -10224,16 +10224,16 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G75" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>182</v>
@@ -10303,7 +10303,7 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>290</v>
@@ -10336,16 +10336,16 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G76" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>182</v>
@@ -10415,7 +10415,7 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>290</v>
@@ -10449,13 +10449,13 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>182</v>
@@ -10525,7 +10525,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>304</v>
@@ -10565,7 +10565,7 @@
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>182</v>
@@ -10637,7 +10637,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>312</v>
@@ -10677,7 +10677,7 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>315</v>
@@ -10749,7 +10749,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>318</v>
@@ -10861,7 +10861,7 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>324</v>
@@ -10901,7 +10901,7 @@
         <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>182</v>
@@ -10973,7 +10973,7 @@
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>330</v>
@@ -11013,7 +11013,7 @@
         <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>182</v>
@@ -11085,7 +11085,7 @@
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>337</v>
@@ -11116,7 +11116,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>81</v>
@@ -11191,13 +11191,13 @@
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>342</v>
@@ -11237,7 +11237,7 @@
         <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>346</v>
@@ -11311,7 +11311,7 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>350</v>
@@ -11342,16 +11342,16 @@
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>211</v>
@@ -11417,13 +11417,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>358</v>
@@ -11454,16 +11454,16 @@
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>218</v>
@@ -11529,13 +11529,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>365</v>
@@ -11566,16 +11566,16 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>370</v>
@@ -11641,13 +11641,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>373</v>
@@ -11687,7 +11687,7 @@
         <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>376</v>
@@ -11759,7 +11759,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>379</v>
@@ -11790,16 +11790,16 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>182</v>
@@ -11865,13 +11865,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>387</v>
@@ -11983,7 +11983,7 @@
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>394</v>
@@ -12017,7 +12017,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>81</v>
@@ -12095,7 +12095,7 @@
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>400</v>
@@ -12126,7 +12126,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>81</v>
@@ -12138,7 +12138,7 @@
         <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>162</v>
@@ -12201,7 +12201,7 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>81</v>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12250,16 +12250,16 @@
         <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12321,7 +12321,7 @@
         <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>81</v>
@@ -12358,13 +12358,13 @@
         <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>406</v>
@@ -12373,10 +12373,10 @@
         <v>407</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
@@ -12437,7 +12437,7 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>81</v>
@@ -12446,7 +12446,7 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
@@ -12465,10 +12465,10 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>81</v>
@@ -12480,7 +12480,7 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>410</v>
@@ -12540,16 +12540,16 @@
         <v>409</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>412</v>
@@ -12580,10 +12580,10 @@
         <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>81</v>
@@ -12653,13 +12653,13 @@
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>418</v>
@@ -12690,7 +12690,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>81</v>
@@ -12702,7 +12702,7 @@
         <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>421</v>
@@ -12765,13 +12765,13 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>423</v>
@@ -12883,7 +12883,7 @@
         <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>428</v>
@@ -12914,7 +12914,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>81</v>
@@ -12926,7 +12926,7 @@
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>162</v>
@@ -12989,7 +12989,7 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>81</v>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13038,16 +13038,16 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13109,7 +13109,7 @@
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>81</v>
@@ -13146,13 +13146,13 @@
         <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>406</v>
@@ -13161,10 +13161,10 @@
         <v>407</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>81</v>
@@ -13225,7 +13225,7 @@
         <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>81</v>
@@ -13234,7 +13234,7 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
@@ -13256,7 +13256,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>81</v>
@@ -13268,7 +13268,7 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>433</v>
@@ -13331,13 +13331,13 @@
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>435</v>
@@ -13368,7 +13368,7 @@
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>
@@ -13413,7 +13413,7 @@
         <v>81</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X103" t="s" s="2">
         <v>439</v>
@@ -13443,13 +13443,13 @@
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>441</v>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Clinical Study</t>
+    <t>Profile Clinical Study</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile describes a clinical study in which a patient takes part.</t>
+    <t>Profile to describe a clinical study in which a patient takes part.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Need to make sure we encompass public health studies.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>ObservationalStudyProtocolVersion; Study;
@@ -1919,16 +1923,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1939,10 +1943,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1953,7 +1957,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -1962,19 +1966,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2024,13 +2028,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2056,10 +2060,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2070,7 +2074,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2079,16 +2083,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2139,19 +2143,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2171,10 +2175,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2185,28 +2189,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2256,19 +2260,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2288,10 +2292,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2302,7 +2306,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2314,16 +2318,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2349,13 +2353,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2373,19 +2377,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2405,21 +2409,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2431,16 +2435,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2490,19 +2494,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2511,7 +2515,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2522,14 +2526,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2548,16 +2552,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2607,7 +2611,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2628,7 +2632,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -2639,14 +2643,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2665,16 +2669,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2724,7 +2728,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2736,7 +2740,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2745,7 +2749,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -2756,14 +2760,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2776,25 +2780,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2843,7 +2847,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2855,7 +2859,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2864,7 +2868,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -2875,10 +2879,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2892,26 +2896,26 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2948,17 +2952,17 @@
         <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2970,33 +2974,33 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>41</v>
@@ -3006,7 +3010,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>41</v>
@@ -3015,20 +3019,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3038,7 +3042,7 @@
         <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>41</v>
@@ -3077,7 +3081,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3089,30 +3093,30 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3123,7 +3127,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
@@ -3135,13 +3139,13 @@
         <v>41</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3192,13 +3196,13 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
@@ -3213,7 +3217,7 @@
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -3224,14 +3228,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3250,16 +3254,16 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3297,19 +3301,19 @@
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3321,7 +3325,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
@@ -3330,7 +3334,7 @@
         <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -3341,10 +3345,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3355,31 +3359,31 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3404,13 +3408,13 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3428,28 +3432,28 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3460,10 +3464,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3474,7 +3478,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3483,22 +3487,22 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3523,13 +3527,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3547,28 +3551,28 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3579,10 +3583,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3590,34 +3594,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3627,10 +3631,10 @@
         <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>41</v>
@@ -3666,28 +3670,28 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3698,10 +3702,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3709,31 +3713,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3747,7 +3751,7 @@
         <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>41</v>
@@ -3783,28 +3787,28 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3815,10 +3819,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3829,7 +3833,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3838,16 +3842,16 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3898,28 +3902,28 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3930,10 +3934,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3944,7 +3948,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -3953,19 +3957,19 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4015,28 +4019,28 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -4047,13 +4051,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
@@ -4063,7 +4067,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -4072,20 +4076,20 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -4095,7 +4099,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -4134,7 +4138,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4146,30 +4150,30 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4180,7 +4184,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4192,13 +4196,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4249,13 +4253,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4270,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4281,14 +4285,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4307,16 +4311,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4354,19 +4358,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4378,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4387,7 +4391,7 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4398,10 +4402,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4412,31 +4416,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4461,13 +4465,13 @@
         <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>41</v>
@@ -4485,28 +4489,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4517,10 +4521,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4531,7 +4535,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4540,22 +4544,22 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4580,13 +4584,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
@@ -4604,28 +4608,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4636,10 +4640,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4647,34 +4651,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4684,10 +4688,10 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>41</v>
@@ -4723,28 +4727,28 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4755,10 +4759,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4766,31 +4770,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4804,7 +4808,7 @@
         <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>41</v>
@@ -4840,28 +4844,28 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4872,10 +4876,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4886,7 +4890,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4895,16 +4899,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4955,28 +4959,28 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4987,10 +4991,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5001,7 +5005,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -5010,19 +5014,19 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5072,28 +5076,28 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -5104,13 +5108,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>41</v>
@@ -5120,7 +5124,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5129,20 +5133,20 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -5152,7 +5156,7 @@
         <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>41</v>
@@ -5191,7 +5195,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5203,30 +5207,30 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5237,7 +5241,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -5249,13 +5253,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5306,13 +5310,13 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
@@ -5327,7 +5331,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5338,14 +5342,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5364,16 +5368,16 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5411,19 +5415,19 @@
         <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5435,7 +5439,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5444,7 +5448,7 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5455,10 +5459,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5469,31 +5473,31 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5518,13 +5522,13 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
@@ -5542,28 +5546,28 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5574,10 +5578,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5588,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5597,22 +5601,22 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5637,13 +5641,13 @@
         <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>41</v>
@@ -5661,28 +5665,28 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5693,10 +5697,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5704,34 +5708,34 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5741,10 +5745,10 @@
         <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>41</v>
@@ -5780,28 +5784,28 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5812,10 +5816,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5823,31 +5827,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5861,7 +5865,7 @@
         <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>41</v>
@@ -5897,28 +5901,28 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5929,10 +5933,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5943,7 +5947,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5952,16 +5956,16 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6012,28 +6016,28 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -6044,10 +6048,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6058,7 +6062,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6067,19 +6071,19 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6129,28 +6133,28 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -6161,13 +6165,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>41</v>
@@ -6177,7 +6181,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6186,20 +6190,20 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6209,7 +6213,7 @@
         <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>41</v>
@@ -6248,7 +6252,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6260,30 +6264,30 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6294,7 +6298,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6306,13 +6310,13 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6363,13 +6367,13 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
@@ -6384,7 +6388,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6395,14 +6399,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6421,16 +6425,16 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6468,19 +6472,19 @@
         <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6492,7 +6496,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6501,7 +6505,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6512,10 +6516,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6526,31 +6530,31 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6575,13 +6579,13 @@
         <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>41</v>
@@ -6599,28 +6603,28 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6631,10 +6635,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6645,7 +6649,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6654,22 +6658,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6694,13 +6698,13 @@
         <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
@@ -6718,28 +6722,28 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6750,10 +6754,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6761,34 +6765,34 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6798,10 +6802,10 @@
         <v>41</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>41</v>
@@ -6837,28 +6841,28 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6869,10 +6873,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6880,31 +6884,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6918,7 +6922,7 @@
         <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>41</v>
@@ -6954,28 +6958,28 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6986,10 +6990,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7000,7 +7004,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -7009,16 +7013,16 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7069,28 +7073,28 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -7101,10 +7105,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7115,7 +7119,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -7124,19 +7128,19 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7186,28 +7190,28 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -7218,13 +7222,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>41</v>
@@ -7234,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7243,20 +7247,20 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7266,7 +7270,7 @@
         <v>41</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>41</v>
@@ -7305,7 +7309,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7317,30 +7321,30 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7351,7 +7355,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7363,13 +7367,13 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7420,13 +7424,13 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
@@ -7441,7 +7445,7 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7452,14 +7456,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7478,16 +7482,16 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7525,19 +7529,19 @@
         <v>41</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7549,7 +7553,7 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -7558,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7569,10 +7573,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7583,31 +7587,31 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7632,13 +7636,13 @@
         <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -7656,28 +7660,28 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -7688,10 +7692,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7702,7 +7706,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -7711,22 +7715,22 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7751,13 +7755,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -7775,28 +7779,28 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7807,10 +7811,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7818,34 +7822,34 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -7855,10 +7859,10 @@
         <v>41</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>41</v>
@@ -7894,28 +7898,28 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7926,10 +7930,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7937,31 +7941,31 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7975,7 +7979,7 @@
         <v>41</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>41</v>
@@ -8011,28 +8015,28 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -8043,10 +8047,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8057,7 +8061,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -8066,16 +8070,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8126,28 +8130,28 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -8158,10 +8162,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8172,7 +8176,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8181,19 +8185,19 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8243,28 +8247,28 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -8275,13 +8279,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>41</v>
@@ -8291,7 +8295,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8300,20 +8304,20 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8323,7 +8327,7 @@
         <v>41</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>41</v>
@@ -8362,7 +8366,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8374,30 +8378,30 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8408,7 +8412,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8420,13 +8424,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8477,13 +8481,13 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
@@ -8498,7 +8502,7 @@
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8509,14 +8513,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8535,16 +8539,16 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8582,19 +8586,19 @@
         <v>41</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8606,7 +8610,7 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -8615,7 +8619,7 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8626,10 +8630,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8640,31 +8644,31 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8689,13 +8693,13 @@
         <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>41</v>
@@ -8713,28 +8717,28 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8745,10 +8749,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8759,7 +8763,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -8768,22 +8772,22 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8808,13 +8812,13 @@
         <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -8832,28 +8836,28 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8864,10 +8868,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8875,34 +8879,34 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -8912,10 +8916,10 @@
         <v>41</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>41</v>
@@ -8951,28 +8955,28 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8983,10 +8987,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8994,31 +8998,31 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9032,7 +9036,7 @@
         <v>41</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>41</v>
@@ -9068,28 +9072,28 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -9100,10 +9104,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9114,7 +9118,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9123,16 +9127,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9183,28 +9187,28 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -9215,10 +9219,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9229,7 +9233,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9238,19 +9242,19 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9300,28 +9304,28 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9332,10 +9336,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9346,25 +9350,25 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9415,22 +9419,22 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
@@ -9439,7 +9443,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -9447,10 +9451,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9470,16 +9474,16 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9530,7 +9534,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9542,19 +9546,19 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9562,14 +9566,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9585,20 +9589,20 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9647,7 +9651,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9659,16 +9663,16 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9679,10 +9683,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9690,28 +9694,28 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9738,13 +9742,13 @@
         <v>41</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>41</v>
@@ -9762,42 +9766,42 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9808,25 +9812,25 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9853,13 +9857,13 @@
         <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>41</v>
@@ -9877,22 +9881,22 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
@@ -9909,10 +9913,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9920,10 +9924,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -9932,16 +9936,16 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9968,11 +9972,11 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
@@ -9990,22 +9994,22 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
@@ -10014,7 +10018,7 @@
         <v>41</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10022,10 +10026,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10033,28 +10037,28 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10081,10 +10085,10 @@
         <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -10093,17 +10097,17 @@
         <v>41</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10115,10 +10119,10 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -10127,7 +10131,7 @@
         <v>41</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10135,41 +10139,41 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10196,11 +10200,11 @@
         <v>41</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>41</v>
@@ -10218,7 +10222,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10230,10 +10234,10 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
@@ -10242,7 +10246,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10250,13 +10254,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>41</v>
@@ -10269,22 +10273,22 @@
         <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10311,11 +10315,11 @@
         <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>41</v>
@@ -10333,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10345,10 +10349,10 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>41</v>
@@ -10357,7 +10361,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10365,13 +10369,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>41</v>
@@ -10381,25 +10385,25 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10426,11 +10430,11 @@
         <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>41</v>
@@ -10448,7 +10452,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10460,10 +10464,10 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>41</v>
@@ -10472,7 +10476,7 @@
         <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10480,13 +10484,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>41</v>
@@ -10496,25 +10500,25 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10541,11 +10545,11 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -10563,7 +10567,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10575,10 +10579,10 @@
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>41</v>
@@ -10587,7 +10591,7 @@
         <v>41</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -10595,10 +10599,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10612,22 +10616,22 @@
         <v>40</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10654,11 +10658,11 @@
         <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>41</v>
@@ -10676,7 +10680,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10688,10 +10692,10 @@
         <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
@@ -10700,18 +10704,18 @@
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10731,16 +10735,16 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10767,13 +10771,13 @@
         <v>41</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>41</v>
@@ -10791,7 +10795,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10803,10 +10807,10 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -10815,18 +10819,18 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10846,16 +10850,16 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10906,7 +10910,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -10918,10 +10922,10 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
@@ -10930,7 +10934,7 @@
         <v>41</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -10938,10 +10942,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10964,13 +10968,13 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11021,7 +11025,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11033,10 +11037,10 @@
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
@@ -11045,7 +11049,7 @@
         <v>41</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11053,10 +11057,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11076,16 +11080,16 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11112,10 +11116,10 @@
         <v>41</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
@@ -11136,7 +11140,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11148,10 +11152,10 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -11160,7 +11164,7 @@
         <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11168,10 +11172,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11191,16 +11195,16 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11227,13 +11231,13 @@
         <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>41</v>
@@ -11251,7 +11255,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11263,10 +11267,10 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -11283,10 +11287,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11297,7 +11301,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11309,13 +11313,13 @@
         <v>41</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11366,22 +11370,22 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11390,7 +11394,7 @@
         <v>41</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
@@ -11398,14 +11402,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11421,19 +11425,19 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11483,7 +11487,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11495,41 +11499,41 @@
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -11538,16 +11542,16 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11598,42 +11602,42 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11644,7 +11648,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -11653,16 +11657,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11713,42 +11717,42 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11759,7 +11763,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -11768,16 +11772,16 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11828,42 +11832,42 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11883,16 +11887,16 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11943,7 +11947,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -11955,10 +11959,10 @@
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -11967,18 +11971,18 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11989,7 +11993,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
@@ -11998,16 +12002,16 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12034,13 +12038,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12058,22 +12062,22 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
@@ -12082,18 +12086,18 @@
         <v>41</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12116,13 +12120,13 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12173,7 +12177,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12185,16 +12189,16 @@
         <v>41</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
@@ -12205,10 +12209,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12222,7 +12226,7 @@
         <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>41</v>
@@ -12231,13 +12235,13 @@
         <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12288,7 +12292,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -12300,10 +12304,10 @@
         <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
@@ -12312,7 +12316,7 @@
         <v>41</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>41</v>
@@ -12320,10 +12324,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12334,7 +12338,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>41</v>
@@ -12346,13 +12350,13 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12403,13 +12407,13 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>41</v>
@@ -12424,7 +12428,7 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
@@ -12435,14 +12439,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12461,16 +12465,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12520,7 +12524,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -12532,7 +12536,7 @@
         <v>41</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>
@@ -12541,7 +12545,7 @@
         <v>41</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>41</v>
@@ -12552,14 +12556,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12572,25 +12576,25 @@
         <v>41</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>41</v>
@@ -12639,7 +12643,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -12651,7 +12655,7 @@
         <v>41</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>41</v>
@@ -12660,7 +12664,7 @@
         <v>41</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>41</v>
@@ -12671,10 +12675,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12682,10 +12686,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -12697,13 +12701,13 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12754,22 +12758,22 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
@@ -12778,7 +12782,7 @@
         <v>41</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
@@ -12786,10 +12790,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12800,10 +12804,10 @@
         <v>39</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>41</v>
@@ -12812,13 +12816,13 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12845,11 +12849,11 @@
         <v>41</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y95" s="2"/>
       <c r="Z95" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>41</v>
@@ -12867,22 +12871,22 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
@@ -12891,7 +12895,7 @@
         <v>41</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -12899,10 +12903,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12913,7 +12917,7 @@
         <v>39</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>41</v>
@@ -12925,13 +12929,13 @@
         <v>41</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12982,22 +12986,22 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>41</v>
@@ -13006,7 +13010,7 @@
         <v>41</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
@@ -13014,10 +13018,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13040,13 +13044,13 @@
         <v>41</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13097,7 +13101,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13109,10 +13113,10 @@
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
@@ -13129,10 +13133,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13143,7 +13147,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>41</v>
@@ -13155,13 +13159,13 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13212,13 +13216,13 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>41</v>
@@ -13233,7 +13237,7 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>41</v>
@@ -13244,14 +13248,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13270,16 +13274,16 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13329,7 +13333,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -13341,7 +13345,7 @@
         <v>41</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>41</v>
@@ -13350,7 +13354,7 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>41</v>
@@ -13361,14 +13365,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13381,25 +13385,25 @@
         <v>41</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
@@ -13448,7 +13452,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -13460,7 +13464,7 @@
         <v>41</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>41</v>
@@ -13469,7 +13473,7 @@
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>41</v>
@@ -13480,10 +13484,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13494,7 +13498,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>41</v>
@@ -13506,13 +13510,13 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13563,22 +13567,22 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
@@ -13595,10 +13599,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13609,7 +13613,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>41</v>
@@ -13621,13 +13625,13 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13654,13 +13658,13 @@
         <v>41</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>41</v>
@@ -13678,22 +13682,22 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-clinical-study.xlsx
+++ b/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
